--- a/DecorLibaryDesigner/Testdata/DT_05CreateLibraryItem.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_05CreateLibraryItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NuwanM\eclipseWorkPlace\DecorLibaryDesigner\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3BA14E-C6A5-4ACD-9C7B-16094D7E3D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89754573-9663-44BE-9BAB-5BEE839B69D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
   </bookViews>
@@ -93,10 +93,10 @@
     <t>Carefully need to transport added Lib</t>
   </si>
   <si>
-    <t>PCL1013</t>
-  </si>
-  <si>
-    <t>ProductAutoLib0406</t>
+    <t>PCL12177</t>
+  </si>
+  <si>
+    <t>ProductAutoLib066</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>300.77999999999997</v>
+        <v>30.78</v>
       </c>
       <c r="H2">
         <v>14</v>

--- a/DecorLibaryDesigner/Testdata/DT_05CreateLibraryItem.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_05CreateLibraryItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89754573-9663-44BE-9BAB-5BEE839B69D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D72CA6-8374-4FFD-8913-92187D4E49C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
   </bookViews>
@@ -93,10 +93,10 @@
     <t>Carefully need to transport added Lib</t>
   </si>
   <si>
-    <t>PCL12177</t>
-  </si>
-  <si>
-    <t>ProductAutoLib066</t>
+    <t>PCL1217957</t>
+  </si>
+  <si>
+    <t>ProductAutoLib0530</t>
   </si>
 </sst>
 </file>
@@ -471,13 +471,13 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>30.78</v>
+        <v>290.77999999999997</v>
       </c>
       <c r="H2">
         <v>14</v>
